--- a/docs/Test Plan Doc.xlsx
+++ b/docs/Test Plan Doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="540" windowWidth="11175" windowHeight="9150"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="11175" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>Test ID</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Verify that the stock meme activity loads within 5 Seconds</t>
   </si>
   <si>
-    <t>Note: Need to fix the .xml and use GridView, I can't believe I didn't do that.</t>
-  </si>
-  <si>
     <t>Verify that selection activity will load within 5 seconds of hitting the button</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>No matter which direction is turned, starting from any orientation, the screen will rotate, picture will be there and fit within screen, buttons will stay the same, and GUI will form to good UI design</t>
   </si>
   <si>
-    <t>Note: sends you back to the gallery selection intent</t>
-  </si>
-  <si>
     <t>Rotate the screen during Gallery Selection Intent</t>
   </si>
   <si>
@@ -161,13 +155,16 @@
   </si>
   <si>
     <t>Select an image from google Drive: .png</t>
+  </si>
+  <si>
+    <t>Note: locked in portrait</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -189,6 +186,17 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -247,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -275,7 +283,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -309,6 +332,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -607,7 +636,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -686,14 +715,11 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -701,113 +727,114 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -815,16 +842,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -832,16 +859,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -849,19 +876,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
+      <c r="D15" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -869,16 +896,16 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -886,13 +913,16 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -900,13 +930,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -914,13 +944,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -928,13 +958,13 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -942,13 +972,13 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -956,39 +986,40 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -996,16 +1027,16 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1013,16 +1044,16 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1030,16 +1061,16 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1047,16 +1078,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1064,16 +1095,16 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Test Plan Doc.xlsx
+++ b/docs/Test Plan Doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="11175" windowHeight="9090"/>
+    <workbookView xWindow="270" yWindow="660" windowWidth="11175" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
   <si>
     <t>Test ID</t>
   </si>
@@ -118,12 +118,6 @@
     <t>Rotate the Screen while saving</t>
   </si>
   <si>
-    <t>Rotate the screen while verifying credentials to Twitter</t>
-  </si>
-  <si>
-    <t>Rotate the screen while verifying credentials to Facebook</t>
-  </si>
-  <si>
     <t>Rotate the screen while posting to Twitter</t>
   </si>
   <si>
@@ -158,13 +152,61 @@
   </si>
   <si>
     <t>Note: locked in portrait</t>
+  </si>
+  <si>
+    <t>screen is locked</t>
+  </si>
+  <si>
+    <t>Photo Editing</t>
+  </si>
+  <si>
+    <t>Enter text to top of image</t>
+  </si>
+  <si>
+    <t>Enter text to bottom</t>
+  </si>
+  <si>
+    <t>Enter text to both</t>
+  </si>
+  <si>
+    <t>Enter more than 3 lines of text</t>
+  </si>
+  <si>
+    <t>Photo saved without text</t>
+  </si>
+  <si>
+    <t>Photo saved with text</t>
+  </si>
+  <si>
+    <t>Does not save-already has been</t>
+  </si>
+  <si>
+    <t>text scales appropriately</t>
+  </si>
+  <si>
+    <t>text displays on both</t>
+  </si>
+  <si>
+    <t>text apears in top text box</t>
+  </si>
+  <si>
+    <t>text appears in bottom text box</t>
+  </si>
+  <si>
+    <t>Saves image with text overlay to gallery</t>
+  </si>
+  <si>
+    <t>hit "delete" button</t>
+  </si>
+  <si>
+    <t>wipes all text from image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,8 +240,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,12 +263,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,52 +297,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,8 +356,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -633,184 +655,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -820,305 +857,409 @@
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="D15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>17</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>19</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>20</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>21</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>41</v>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A30:F30"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69 E70 E71 E72 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E84 E85 E86 E87 E88 E89 E90 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E104 E105 E106 E107">
+  <conditionalFormatting sqref="E3:E29 E31:E107">
     <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="Black">
       <formula>NOT(ISERROR(SEARCH("Black", E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3 D3 C4 D4 C5 D5 C6 D6 C7 D7 C8 D8 C9 D9 C10 D10 C11 D11 C12 D12 C13 D13 C14 D14 C15 D15 C16 D16 C17 D17 C18 D18 C19 D19 C20 D20 C21 D21 C22 D22 C23 D23 C24 D24 C25 D25 C26 D26 C27 D27 C28 D28 C29 D29 C30 D30 C31 D31 C32 D32 C33 D33 C34 D34 C35 D35 C36 D36 C37 D37 C38 D38 C39 D39 C40 D40 C41 D41 C42 D42 C43 D43 C44 D44 C45 D45 C46 D46 C47 D47 C48 D48 C49 D49 C50 D50 C51 D51 C52 D52 C53 D53 C54 D54 C55 D55 C56 D56 C57 D57 C58 D58 C59 D59 C60 D60 C61 D61 C62 D62 C63 D63 C64 D64 C65 D65 C66 D66 C67 D67 C68 D68 C69 D69 C70 D70 C71 D71 C72 D72 C73 D73 C74 D74 C75 D75 C76 D76 C77 D77 C78 D78 C79 D79 C80 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96">
+  <conditionalFormatting sqref="C3:D29 C31:C80 D31:D96">
     <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" operator="containsText" text="Green">
       <formula>NOT(ISERROR(SEARCH("Green", C3)))</formula>
     </cfRule>

--- a/docs/Test Plan Doc.xlsx
+++ b/docs/Test Plan Doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="660" windowWidth="11175" windowHeight="9030"/>
+    <workbookView xWindow="270" yWindow="720" windowWidth="11175" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
   <si>
     <t>Test ID</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Verify that the camera has an orientation of 90 degrees (portrait mode is locked)</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>Verify that the stock meme activity loads within 5 Seconds</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Black-box</t>
   </si>
   <si>
-    <t>Need to do JUnit test</t>
-  </si>
-  <si>
     <t>Buttons on MainActivity scale for large screens</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>Photo Edit Activity loads with picture centered, and completley visible</t>
   </si>
   <si>
-    <t>need to do junit</t>
-  </si>
-  <si>
     <t>Select an Image from Gallery: jpeg</t>
   </si>
   <si>
@@ -200,6 +191,27 @@
   </si>
   <si>
     <t>wipes all text from image</t>
+  </si>
+  <si>
+    <t>Photo Edit Activity edit text types</t>
+  </si>
+  <si>
+    <t>Correct font on both text boxes</t>
+  </si>
+  <si>
+    <t>Post to Twitter</t>
+  </si>
+  <si>
+    <t>Blank Image can post</t>
+  </si>
+  <si>
+    <t>Image with text overlay can post</t>
+  </si>
+  <si>
+    <t>Image can post with added text</t>
+  </si>
+  <si>
+    <t>Tweet sent, seen on twitter site</t>
   </si>
 </sst>
 </file>
@@ -297,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -305,29 +317,93 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -655,16 +731,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
@@ -692,578 +768,636 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>9</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="B26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="B28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="B29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>21</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="C33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>14</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>16</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>17</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>18</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>19</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>20</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>21</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="C34" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="13" t="s">
+      <c r="C35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+      <c r="C36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="D36" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22" t="s">
         <v>61</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E29 E31:E107">
-    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="Black">
+  <conditionalFormatting sqref="E3:E31 E33:E109">
+    <cfRule type="containsText" dxfId="10" priority="1" stopIfTrue="1" operator="containsText" text="Black">
       <formula>NOT(ISERROR(SEARCH("Black", E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D29 C31:C80 D31:D96">
-    <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" operator="containsText" text="Green">
+  <conditionalFormatting sqref="C33:C82 C3:D31 D33:D98">
+    <cfRule type="containsText" dxfId="9" priority="2" stopIfTrue="1" operator="containsText" text="Green">
       <formula>NOT(ISERROR(SEARCH("Green", C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" stopIfTrue="1" operator="containsText" text="Red">
+    <cfRule type="containsText" dxfId="8" priority="2" stopIfTrue="1" operator="containsText" text="Red">
       <formula>NOT(ISERROR(SEARCH("Red", C3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Test Plan Doc.xlsx
+++ b/docs/Test Plan Doc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
   <si>
     <t>Test ID</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>Tweet sent, seen on twitter site</t>
+  </si>
+  <si>
+    <t>Adding tweet text, =&lt;160 chars, send tweet</t>
+  </si>
+  <si>
+    <t>Adding tweet text, &gt;160 chars, send tweet</t>
+  </si>
+  <si>
+    <t>Tweet fails to send</t>
   </si>
 </sst>
 </file>
@@ -327,6 +336,14 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -335,75 +352,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -731,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -768,10 +721,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -915,10 +868,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="4"/>
@@ -934,13 +887,13 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,13 +1087,13 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1240,14 +1193,14 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -1257,7 +1210,7 @@
       <c r="C33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="4"/>
@@ -1271,7 +1224,7 @@
       <c r="C34" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="4"/>
@@ -1285,7 +1238,7 @@
       <c r="C35" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="4"/>
@@ -1299,7 +1252,7 @@
       <c r="C36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="4"/>
@@ -1339,14 +1292,14 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
@@ -1378,6 +1331,28 @@
         <v>65</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1389,15 +1364,15 @@
     <mergeCell ref="A32:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E31 E33:E109">
-    <cfRule type="containsText" dxfId="10" priority="1" stopIfTrue="1" operator="containsText" text="Black">
+    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="Black">
       <formula>NOT(ISERROR(SEARCH("Black", E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:C82 C3:D31 D33:D98">
-    <cfRule type="containsText" dxfId="9" priority="2" stopIfTrue="1" operator="containsText" text="Green">
+    <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" operator="containsText" text="Green">
       <formula>NOT(ISERROR(SEARCH("Green", C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" stopIfTrue="1" operator="containsText" text="Red">
+    <cfRule type="containsText" dxfId="0" priority="2" stopIfTrue="1" operator="containsText" text="Red">
       <formula>NOT(ISERROR(SEARCH("Red", C3)))</formula>
     </cfRule>
   </conditionalFormatting>
